--- a/BackTest/2019-10-30 BackTest IOST.xlsx
+++ b/BackTest/2019-10-30 BackTest IOST.xlsx
@@ -451,20 +451,14 @@
         <v>8.032500000000004</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>8.289999999999999</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>8.058000000000003</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>8.34</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>8.080500000000004</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8.34</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>8.116000000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>8.449999999999999</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>8.166000000000004</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>8.73</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -663,11 +633,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -702,11 +668,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -741,11 +703,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -780,11 +738,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -819,11 +773,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -858,11 +808,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -897,11 +843,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -936,11 +878,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -971,16 +909,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1008,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -1043,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1078,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1113,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1148,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1183,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1253,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1565,20 +1501,14 @@
         <v>8.480500000000003</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>8.289999999999999</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1606,20 +1536,14 @@
         <v>8.451000000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>8.24</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1647,20 +1571,14 @@
         <v>8.418500000000002</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>8.17</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1688,20 +1606,14 @@
         <v>8.398000000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>8.289999999999999</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1729,20 +1641,14 @@
         <v>8.396500000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>8.470000000000001</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1770,20 +1676,14 @@
         <v>8.388000000000002</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>8.48</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1811,20 +1711,14 @@
         <v>8.380500000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>8.49</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1753,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1898,11 +1788,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1937,11 +1823,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1976,11 +1858,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2015,11 +1893,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2054,11 +1928,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2093,11 +1963,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2132,11 +1998,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2171,11 +2033,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2210,11 +2068,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2249,11 +2103,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2288,11 +2138,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2327,11 +2173,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2366,11 +2208,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2405,11 +2243,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2444,11 +2278,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2483,11 +2313,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2522,11 +2348,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2561,11 +2383,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2600,11 +2418,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2639,11 +2453,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2678,11 +2488,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2710,18 +2516,18 @@
         <v>8.542500000000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="K61" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2755,10 +2561,12 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M62" t="n">
@@ -2794,7 +2602,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,7 +2643,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,7 +2684,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2911,7 +2725,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2950,7 +2766,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,7 +2807,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3028,7 +2848,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3067,7 +2889,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3106,7 +2930,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3139,13 +2965,17 @@
         <v>8.464000000000004</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="K72" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3178,13 +3008,17 @@
         <v>8.458500000000004</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>8.52</v>
+      </c>
+      <c r="K73" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3217,13 +3051,17 @@
         <v>8.450000000000005</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="K74" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3262,7 +3100,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3301,7 +3141,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3340,7 +3182,9 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3379,7 +3223,9 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,7 +3264,9 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3457,7 +3305,9 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3496,7 +3346,9 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3535,7 +3387,9 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3574,7 +3428,9 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3613,7 +3469,9 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3652,7 +3510,9 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3691,7 +3551,9 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3730,7 +3592,9 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3763,13 +3627,17 @@
         <v>8.386500000000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="K88" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3808,7 +3676,9 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,7 +3717,9 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3886,7 +3758,9 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3925,7 +3799,9 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3964,7 +3840,9 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4003,7 +3881,9 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4042,7 +3922,9 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,7 +3963,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4120,7 +4004,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,7 +4045,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4198,7 +4086,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4237,7 +4127,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4276,7 +4168,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4315,7 +4209,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4354,7 +4250,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4393,7 +4291,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4432,7 +4332,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4471,7 +4373,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4510,7 +4414,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4549,7 +4455,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4588,7 +4496,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4627,7 +4537,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4666,7 +4578,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4705,7 +4619,9 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4744,7 +4660,9 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4783,7 +4701,9 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4822,7 +4742,9 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4861,7 +4783,9 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4900,7 +4824,9 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4939,7 +4865,9 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4978,7 +4906,9 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5017,7 +4947,9 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5056,7 +4988,9 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5095,7 +5029,9 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5134,7 +5070,9 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5173,7 +5111,9 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5212,7 +5152,9 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5251,7 +5193,9 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5290,7 +5234,9 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5329,7 +5275,9 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5368,7 +5316,9 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5407,7 +5357,9 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5446,7 +5398,9 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5485,7 +5439,9 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5524,7 +5480,9 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5563,7 +5521,9 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5602,7 +5562,9 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5641,7 +5603,9 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5680,7 +5644,9 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5719,7 +5685,9 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5755,17 +5723,19 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>8.58</v>
+      </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M139" t="n">
-        <v>1</v>
+        <v>1.132529137529138</v>
       </c>
     </row>
     <row r="140">
@@ -5794,15 +5764,11 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5833,15 +5799,11 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5876,11 +5838,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5911,15 +5869,11 @@
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5954,11 +5908,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5993,11 +5943,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5978,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6071,11 +6013,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +6048,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +6083,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +6118,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +6153,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6266,11 +6188,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6305,11 +6223,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +6258,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6383,11 +6293,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +6328,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +6363,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +6398,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +6433,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +6468,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +6503,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6656,11 +6538,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +6573,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6734,11 +6608,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6773,11 +6643,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +6678,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +6713,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6890,11 +6748,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6929,11 +6783,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +6818,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7007,11 +6853,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7046,11 +6888,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7085,11 +6923,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7124,11 +6958,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +6993,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7202,11 +7028,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +7063,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +7098,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7319,11 +7133,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7358,11 +7168,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7397,11 +7203,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7436,11 +7238,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +7273,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7514,11 +7308,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7553,11 +7343,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7592,11 +7378,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7631,11 +7413,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7670,11 +7448,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7709,11 +7483,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7748,11 +7518,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7787,11 +7553,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7826,11 +7588,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7865,11 +7623,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7904,11 +7658,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7943,11 +7693,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7982,11 +7728,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8021,11 +7763,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8060,11 +7798,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8099,11 +7833,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8138,11 +7868,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8177,11 +7903,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8216,11 +7938,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8255,11 +7973,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8294,11 +8008,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8333,11 +8043,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8372,11 +8078,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8411,11 +8113,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8450,11 +8148,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8489,11 +8183,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8528,11 +8218,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8567,11 +8253,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8606,11 +8288,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8645,11 +8323,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8684,11 +8358,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8723,11 +8393,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8762,11 +8428,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8801,11 +8463,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8840,11 +8498,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8879,11 +8533,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +8568,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8957,11 +8603,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8996,11 +8638,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9035,11 +8673,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9074,11 +8708,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9113,11 +8743,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9152,11 +8778,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +8813,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9230,11 +8848,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9269,11 +8883,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9308,11 +8918,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9347,11 +8953,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9386,11 +8988,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9425,11 +9023,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9457,16 +9051,18 @@
         <v>8.398499999999999</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>8.26</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M234" t="n">
@@ -9496,12 +9092,14 @@
         <v>8.385999999999999</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>8.359999999999999</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
@@ -9535,12 +9133,14 @@
         <v>8.378499999999999</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>8.49</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
@@ -9574,12 +9174,14 @@
         <v>8.364499999999998</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>8.470000000000001</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
@@ -9652,12 +9254,14 @@
         <v>8.343500000000001</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>8.58</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
@@ -9730,12 +9334,14 @@
         <v>8.352</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>8.4</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
@@ -9769,12 +9375,14 @@
         <v>8.366499999999998</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>8.390000000000001</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
@@ -9808,12 +9416,14 @@
         <v>8.353999999999999</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>8.41</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
@@ -9847,12 +9457,14 @@
         <v>8.367000000000001</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>8.41</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
@@ -9886,12 +9498,14 @@
         <v>8.381</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>8.52</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
@@ -9925,12 +9539,14 @@
         <v>8.388999999999999</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>8.44</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
@@ -9964,12 +9580,14 @@
         <v>8.3955</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>8.4</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
@@ -10003,12 +9621,14 @@
         <v>8.404</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>8.4</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
@@ -10042,12 +9662,14 @@
         <v>8.410500000000001</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>8.41</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
@@ -10120,12 +9742,14 @@
         <v>8.431500000000002</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>8.42</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
@@ -10159,12 +9783,14 @@
         <v>8.435000000000002</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>8.43</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
@@ -10198,12 +9824,14 @@
         <v>8.446000000000002</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>8.5</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>

--- a/BackTest/2019-10-30 BackTest IOST.xlsx
+++ b/BackTest/2019-10-30 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-611819.2933</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-611819.2933</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>6.37</v>
@@ -521,7 +521,7 @@
         <v>-611259.7621000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>6.37</v>
@@ -562,7 +562,7 @@
         <v>-611259.7621000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6.4</v>
@@ -603,7 +603,7 @@
         <v>-609932.7621000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>6.4</v>
@@ -640,7 +640,7 @@
         <v>-608605.7621000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>6.43</v>
@@ -681,7 +681,7 @@
         <v>-608803.9746000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>6.45</v>
@@ -722,7 +722,7 @@
         <v>-608734.1135000001</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>6.44</v>
@@ -759,7 +759,7 @@
         <v>-671304.1304000001</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>6.46</v>
@@ -800,7 +800,7 @@
         <v>-670304.1304000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>6.41</v>
@@ -841,7 +841,7 @@
         <v>-758266.3217000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>6.49</v>
@@ -878,7 +878,7 @@
         <v>-760138.3217000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>6.48</v>
@@ -919,7 +919,7 @@
         <v>-760138.3217000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>6.42</v>
@@ -960,7 +960,7 @@
         <v>-763455.3345000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>6.42</v>
@@ -1001,7 +1001,7 @@
         <v>-763657.1048000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>6.37</v>
@@ -1042,7 +1042,7 @@
         <v>-763657.1048000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>6.36</v>
@@ -1083,7 +1083,7 @@
         <v>-766128.0639000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>6.36</v>
@@ -1124,7 +1124,7 @@
         <v>-757152.0639000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>6.33</v>
@@ -1165,7 +1165,7 @@
         <v>-763717.0347000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>6.37</v>
@@ -1206,7 +1206,7 @@
         <v>-770858.3661000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>6.35</v>
@@ -1247,7 +1247,7 @@
         <v>-768858.3661000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>6.33</v>
@@ -1288,7 +1288,7 @@
         <v>-771864.9570000002</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>6.44</v>
@@ -1329,7 +1329,7 @@
         <v>-750563.3953000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>6.41</v>
@@ -1370,7 +1370,7 @@
         <v>-748563.3953000002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>6.46</v>
@@ -1411,7 +1411,7 @@
         <v>-734235.3123000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>6.51</v>
@@ -1452,7 +1452,7 @@
         <v>-627172.7051000003</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>6.77</v>
@@ -1493,7 +1493,7 @@
         <v>-661063.8446000003</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>6.9</v>
@@ -1534,7 +1534,7 @@
         <v>-550305.1900000003</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>6.89</v>
@@ -1575,7 +1575,7 @@
         <v>-841193.2084000004</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>6.98</v>
@@ -1616,7 +1616,7 @@
         <v>-640395.5908000004</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>6.86</v>
@@ -1657,7 +1657,7 @@
         <v>-208964.3022000003</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>7.06</v>
@@ -1698,9 +1698,11 @@
         <v>1074552.1121</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>7.2</v>
+      </c>
       <c r="J33" t="n">
         <v>6.49</v>
       </c>
@@ -8133,7 +8135,7 @@
         <v>21103682.26244609</v>
       </c>
       <c r="H198" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
@@ -8141,15 +8143,13 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L198" t="n">
-        <v>1.498852080123267</v>
-      </c>
-      <c r="M198" t="n">
-        <v>1.01883830455259</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8177,8 +8177,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8207,15 +8213,23 @@
         <v>23792497.2263121</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>1.532750385208012</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.01883830455259</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8273,7 +8287,7 @@
         <v>23741121.5919121</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8339,7 +8353,7 @@
         <v>23459865.6444121</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8372,7 +8386,7 @@
         <v>23555872.7428121</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8405,7 +8419,7 @@
         <v>23555773.7329121</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8438,7 +8452,7 @@
         <v>23444194.6645121</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8471,7 +8485,7 @@
         <v>23316778.7318121</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8504,7 +8518,7 @@
         <v>23638587.1086121</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8537,7 +8551,7 @@
         <v>23481399.0040121</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8570,7 +8584,7 @@
         <v>23299537.0866121</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8603,7 +8617,7 @@
         <v>23855280.7148121</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8636,7 +8650,7 @@
         <v>24924805.14323468</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8669,7 +8683,7 @@
         <v>24704964.83823468</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8702,7 +8716,7 @@
         <v>24717088.59453468</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8735,7 +8749,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8768,7 +8782,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8801,7 +8815,7 @@
         <v>23429562.62803468</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8834,7 +8848,7 @@
         <v>23705115.94533468</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8867,7 +8881,7 @@
         <v>23722095.75433468</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8900,7 +8914,7 @@
         <v>23402475.02513468</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8933,7 +8947,7 @@
         <v>23142033.40623467</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8966,7 +8980,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8999,7 +9013,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9032,7 +9046,7 @@
         <v>22893163.09213467</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9065,7 +9079,7 @@
         <v>23280609.45703467</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9098,7 +9112,7 @@
         <v>23301772.78963467</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9131,7 +9145,7 @@
         <v>23257667.96133468</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9164,7 +9178,7 @@
         <v>23359815.43573467</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9197,7 +9211,7 @@
         <v>23352034.02723467</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9263,7 +9277,7 @@
         <v>23747756.00433467</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9296,7 +9310,7 @@
         <v>23409995.24703467</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9329,7 +9343,7 @@
         <v>23566936.56203467</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9362,7 +9376,7 @@
         <v>23746398.74073467</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9395,7 +9409,7 @@
         <v>23757989.74073467</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9428,7 +9442,7 @@
         <v>23754856.98973468</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9461,7 +9475,7 @@
         <v>23754856.98973468</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9494,7 +9508,7 @@
         <v>23754622.98973468</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9560,7 +9574,7 @@
         <v>24537116.30123468</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9692,7 +9706,7 @@
         <v>24541074.08653468</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9824,7 +9838,7 @@
         <v>24794949.90883468</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9857,7 +9871,7 @@
         <v>24849928.77630944</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9890,7 +9904,7 @@
         <v>24852106.30960944</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9923,7 +9937,7 @@
         <v>24807245.91240944</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9956,7 +9970,7 @@
         <v>24807223.91240944</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9989,7 +10003,7 @@
         <v>24790140.94190944</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10022,7 +10036,7 @@
         <v>24790140.94190944</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10055,7 +10069,7 @@
         <v>24357713.36900944</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10088,7 +10102,7 @@
         <v>24305482.97531822</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10121,7 +10135,7 @@
         <v>24366015.51905569</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10154,7 +10168,7 @@
         <v>24366015.51905569</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10187,7 +10201,7 @@
         <v>24274732.05695569</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10220,7 +10234,7 @@
         <v>24274732.05695569</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10253,7 +10267,7 @@
         <v>24274732.05695569</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10286,7 +10300,7 @@
         <v>24178875.13975569</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10319,7 +10333,7 @@
         <v>22699847.05325569</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10352,7 +10366,7 @@
         <v>23252106.70675569</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10385,7 +10399,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10418,7 +10432,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10451,7 +10465,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10484,7 +10498,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10517,7 +10531,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10550,7 +10564,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10715,7 +10729,7 @@
         <v>22798606.09855569</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10781,7 +10795,7 @@
         <v>22848780.06165569</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10814,7 +10828,7 @@
         <v>22701372.43495569</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10946,7 +10960,7 @@
         <v>22542630.23375569</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -11012,7 +11026,7 @@
         <v>22759822.08865569</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11045,7 +11059,7 @@
         <v>22849825.93935569</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -11276,7 +11290,7 @@
         <v>23135783.03855569</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -12101,7 +12115,7 @@
         <v>23480297.78545569</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12134,7 +12148,7 @@
         <v>23407887.10165569</v>
       </c>
       <c r="H319" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12167,7 +12181,7 @@
         <v>23407876.10165569</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12200,7 +12214,7 @@
         <v>23392465.69865569</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12233,7 +12247,7 @@
         <v>23667647.25045569</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12266,7 +12280,7 @@
         <v>23693762.68495569</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12299,7 +12313,7 @@
         <v>24578169.56036077</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12332,7 +12346,7 @@
         <v>24260877.22736077</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12365,7 +12379,7 @@
         <v>24420429.47461705</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12398,7 +12412,7 @@
         <v>24652431.62701595</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12431,7 +12445,7 @@
         <v>24955539.18531197</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12464,7 +12478,7 @@
         <v>24955539.18531197</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12497,7 +12511,7 @@
         <v>24715273.71291197</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12530,7 +12544,7 @@
         <v>24619540.61257477</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12563,7 +12577,7 @@
         <v>24619540.61257477</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12596,7 +12610,7 @@
         <v>24552313.19387478</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12629,7 +12643,7 @@
         <v>24557003.63397478</v>
       </c>
       <c r="H334" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12662,7 +12676,7 @@
         <v>24552386.77647477</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12695,7 +12709,7 @@
         <v>24753374.27997477</v>
       </c>
       <c r="H336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12728,7 +12742,7 @@
         <v>24768250.76347477</v>
       </c>
       <c r="H337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12761,7 +12775,7 @@
         <v>24693911.85897477</v>
       </c>
       <c r="H338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12794,7 +12808,7 @@
         <v>24563576.87057477</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12827,7 +12841,7 @@
         <v>24563576.87057477</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12860,7 +12874,7 @@
         <v>24458925.49897477</v>
       </c>
       <c r="H341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12893,7 +12907,7 @@
         <v>24458925.49897477</v>
       </c>
       <c r="H342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12926,7 +12940,7 @@
         <v>24522569.18997477</v>
       </c>
       <c r="H343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12959,7 +12973,7 @@
         <v>24017108.18117477</v>
       </c>
       <c r="H344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -12992,7 +13006,7 @@
         <v>23801865.99177478</v>
       </c>
       <c r="H345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13025,7 +13039,7 @@
         <v>24508747.42427478</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13058,7 +13072,7 @@
         <v>24508747.42427478</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13091,7 +13105,7 @@
         <v>24534881.98017478</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13454,7 +13468,7 @@
         <v>23924207.4037623</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13487,7 +13501,7 @@
         <v>23460349.4352623</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13520,7 +13534,7 @@
         <v>22762175.8698623</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13553,7 +13567,7 @@
         <v>20822583.3646623</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13586,7 +13600,7 @@
         <v>19558742.9708623</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13619,7 +13633,7 @@
         <v>21213050.2199623</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13652,7 +13666,7 @@
         <v>21194107.2290623</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13685,7 +13699,7 @@
         <v>21120204.5856623</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13718,7 +13732,7 @@
         <v>20820465.2758623</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13751,7 +13765,7 @@
         <v>20824168.7965623</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13784,7 +13798,7 @@
         <v>20831880.4183623</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13817,7 +13831,7 @@
         <v>20763383.0620623</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13850,7 +13864,7 @@
         <v>20863841.39539563</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13883,7 +13897,7 @@
         <v>20752109.55189563</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13916,7 +13930,7 @@
         <v>20910283.46379563</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13949,7 +13963,7 @@
         <v>20958007.46379563</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13982,7 +13996,7 @@
         <v>20957897.46379563</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14015,7 +14029,7 @@
         <v>20692738.32499563</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14048,7 +14062,7 @@
         <v>20692683.32499563</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14081,7 +14095,7 @@
         <v>20675053.06690694</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14114,7 +14128,7 @@
         <v>20662783.31340694</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14180,7 +14194,7 @@
         <v>20387017.89745256</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14246,7 +14260,7 @@
         <v>19716320.62245256</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14477,7 +14491,7 @@
         <v>19141579.97535256</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14510,7 +14524,7 @@
         <v>19319268.91805256</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14543,7 +14557,7 @@
         <v>19548384.81765256</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14576,7 +14590,7 @@
         <v>19548384.81765256</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14609,7 +14623,7 @@
         <v>20124684.42885256</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14642,7 +14656,7 @@
         <v>19886753.77313154</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14675,7 +14689,7 @@
         <v>19886778.77313154</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14708,7 +14722,7 @@
         <v>19881111.95093154</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14741,7 +14755,7 @@
         <v>20264196.32113154</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14774,7 +14788,7 @@
         <v>20264176.37113154</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14785,6 +14799,6 @@
       <c r="M399" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest IOST.xlsx
+++ b/BackTest/2019-10-30 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1493,11 +1493,9 @@
         <v>-661063.8446000003</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>6.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>6.49</v>
       </c>
@@ -1534,11 +1532,9 @@
         <v>-550305.1900000003</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>6.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>6.49</v>
       </c>
@@ -1575,11 +1571,9 @@
         <v>-841193.2084000004</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>6.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>6.49</v>
       </c>
@@ -1616,11 +1610,9 @@
         <v>-640395.5908000004</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>6.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
         <v>6.49</v>
       </c>
@@ -1657,11 +1649,9 @@
         <v>-208964.3022000003</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>7.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
         <v>6.49</v>
       </c>
@@ -1698,11 +1688,9 @@
         <v>1074552.1121</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>6.49</v>
       </c>
@@ -2519,7 +2507,7 @@
         <v>3812471.02930108</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2527,13 +2515,15 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>1.263104776579353</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.01883830455259</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2558,17 +2548,11 @@
         <v>4481477.979701079</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2597,17 +2581,11 @@
         <v>4001479.265901079</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2636,17 +2614,11 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2675,17 +2647,11 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2714,17 +2680,11 @@
         <v>3605103.629801079</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2753,17 +2713,11 @@
         <v>3888037.757201079</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2792,17 +2746,11 @@
         <v>6743520.138279704</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2831,17 +2779,11 @@
         <v>5669543.470479704</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2870,17 +2812,11 @@
         <v>6141273.172279704</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2909,17 +2845,11 @@
         <v>8617974.240461523</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2948,17 +2878,11 @@
         <v>7312966.117238534</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2987,17 +2911,11 @@
         <v>6417224.798138534</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3026,17 +2944,11 @@
         <v>6730806.021238534</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3065,17 +2977,11 @@
         <v>7848848.072956716</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3104,17 +3010,11 @@
         <v>9372565.272696579</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3143,17 +3043,11 @@
         <v>9965479.489348495</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3182,17 +3076,11 @@
         <v>9046831.960188005</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3224,14 +3112,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3263,14 +3145,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3302,14 +3178,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3338,17 +3208,11 @@
         <v>7908824.434188005</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3377,17 +3241,11 @@
         <v>8056732.904788004</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3416,17 +3274,11 @@
         <v>7757067.985688005</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3455,17 +3307,11 @@
         <v>8003971.056788005</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3497,14 +3343,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3533,17 +3373,11 @@
         <v>8003886.680688005</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3572,17 +3406,11 @@
         <v>8106774.861688005</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3611,17 +3439,11 @@
         <v>8447948.194357414</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3653,14 +3475,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3692,14 +3508,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3728,17 +3538,11 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3767,17 +3571,11 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3806,17 +3604,11 @@
         <v>8054113.143057413</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3845,17 +3637,11 @@
         <v>8211612.692457413</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3884,17 +3670,11 @@
         <v>7591952.717157413</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3923,17 +3703,11 @@
         <v>8266035.230857413</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3962,17 +3736,11 @@
         <v>8827876.83791855</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4001,17 +3769,11 @@
         <v>8322067.312318549</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4040,17 +3802,11 @@
         <v>9392092.67231855</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4079,17 +3835,11 @@
         <v>10360713.65301855</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4118,17 +3868,11 @@
         <v>10796903.43751855</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4157,17 +3901,11 @@
         <v>10875461.19911855</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4199,14 +3937,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4238,14 +3970,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4277,14 +4003,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4316,14 +4036,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4355,14 +4069,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4394,14 +4102,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4433,14 +4135,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4472,14 +4168,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4511,14 +4201,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4550,14 +4234,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4589,14 +4267,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4628,14 +4300,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4667,14 +4333,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4706,14 +4366,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4745,14 +4399,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4784,14 +4432,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4823,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4862,14 +4498,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4901,14 +4531,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4940,14 +4564,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4979,14 +4597,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5018,14 +4630,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5057,14 +4663,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5096,14 +4696,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5135,14 +4729,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5174,14 +4762,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5213,14 +4795,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5252,14 +4828,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5291,14 +4861,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5330,14 +4894,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5369,14 +4927,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5408,14 +4960,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5447,14 +4993,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5486,14 +5026,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5525,14 +5059,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5564,14 +5092,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5603,14 +5125,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5642,14 +5158,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5681,14 +5191,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5720,14 +5224,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5759,14 +5257,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5798,14 +5290,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5837,14 +5323,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5876,14 +5356,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5915,14 +5389,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5954,14 +5422,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5993,14 +5455,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6032,14 +5488,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6071,14 +5521,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6110,14 +5554,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6149,14 +5587,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6188,14 +5620,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6227,14 +5653,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6266,14 +5686,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6305,14 +5719,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6344,14 +5752,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6383,14 +5785,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6422,14 +5818,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6461,14 +5851,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6500,14 +5884,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6539,14 +5917,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6578,14 +5950,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6617,14 +5983,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6656,14 +6016,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6695,14 +6049,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6734,14 +6082,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6773,14 +6115,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6812,14 +6148,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6851,14 +6181,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6890,14 +6214,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6929,14 +6247,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6968,14 +6280,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7007,14 +6313,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7046,14 +6346,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7085,14 +6379,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7124,14 +6412,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7163,14 +6445,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7202,14 +6478,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7241,14 +6511,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7280,14 +6544,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7319,14 +6577,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7358,14 +6610,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7397,14 +6643,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7436,14 +6676,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7475,14 +6709,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7514,14 +6742,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7553,14 +6775,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7592,14 +6808,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7631,14 +6841,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7670,14 +6874,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7709,14 +6907,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7748,14 +6940,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7787,14 +6973,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7826,14 +7006,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7865,14 +7039,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7904,14 +7072,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7943,14 +7105,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7982,14 +7138,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8021,14 +7171,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8060,14 +7204,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8099,14 +7237,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8138,14 +7270,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8177,14 +7303,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8213,23 +7333,15 @@
         <v>23792497.2263121</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
-        <v>1.532750385208012</v>
-      </c>
-      <c r="M200" t="n">
-        <v>1.01883830455259</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8287,7 +7399,7 @@
         <v>23741121.5919121</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -8353,7 +7465,7 @@
         <v>23459865.6444121</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8386,7 +7498,7 @@
         <v>23555872.7428121</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -8419,7 +7531,7 @@
         <v>23555773.7329121</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -8452,7 +7564,7 @@
         <v>23444194.6645121</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8485,7 +7597,7 @@
         <v>23316778.7318121</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8518,7 +7630,7 @@
         <v>23638587.1086121</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8551,7 +7663,7 @@
         <v>23481399.0040121</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8584,7 +7696,7 @@
         <v>23299537.0866121</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8617,7 +7729,7 @@
         <v>23855280.7148121</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8650,7 +7762,7 @@
         <v>24924805.14323468</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8683,7 +7795,7 @@
         <v>24704964.83823468</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8716,7 +7828,7 @@
         <v>24717088.59453468</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8749,7 +7861,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8782,7 +7894,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8815,7 +7927,7 @@
         <v>23429562.62803468</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8848,7 +7960,7 @@
         <v>23705115.94533468</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8881,7 +7993,7 @@
         <v>23722095.75433468</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8914,7 +8026,7 @@
         <v>23402475.02513468</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8947,7 +8059,7 @@
         <v>23142033.40623467</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8980,7 +8092,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9013,7 +8125,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9046,7 +8158,7 @@
         <v>22893163.09213467</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9079,7 +8191,7 @@
         <v>23280609.45703467</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9112,7 +8224,7 @@
         <v>23301772.78963467</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9145,7 +8257,7 @@
         <v>23257667.96133468</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9178,7 +8290,7 @@
         <v>23359815.43573467</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9211,7 +8323,7 @@
         <v>23352034.02723467</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9277,7 +8389,7 @@
         <v>23747756.00433467</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9310,7 +8422,7 @@
         <v>23409995.24703467</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -9343,7 +8455,7 @@
         <v>23566936.56203467</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -9376,7 +8488,7 @@
         <v>23746398.74073467</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -9409,7 +8521,7 @@
         <v>23757989.74073467</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -9442,7 +8554,7 @@
         <v>23754856.98973468</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -9475,7 +8587,7 @@
         <v>23754856.98973468</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9970,7 +9082,7 @@
         <v>24807223.91240944</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10003,7 +9115,7 @@
         <v>24790140.94190944</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10036,7 +9148,7 @@
         <v>24790140.94190944</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10069,7 +9181,7 @@
         <v>24357713.36900944</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10102,7 +9214,7 @@
         <v>24305482.97531822</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10135,7 +9247,7 @@
         <v>24366015.51905569</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10168,7 +9280,7 @@
         <v>24366015.51905569</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10201,7 +9313,7 @@
         <v>24274732.05695569</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10234,7 +9346,7 @@
         <v>24274732.05695569</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10267,7 +9379,7 @@
         <v>24274732.05695569</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10300,7 +9412,7 @@
         <v>24178875.13975569</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10333,7 +9445,7 @@
         <v>22699847.05325569</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10366,7 +9478,7 @@
         <v>23252106.70675569</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10399,7 +9511,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -10432,7 +9544,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10465,7 +9577,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10498,7 +9610,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10531,7 +9643,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10564,7 +9676,7 @@
         <v>23124250.14205569</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10729,7 +9841,7 @@
         <v>22798606.09855569</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10795,7 +9907,7 @@
         <v>22848780.06165569</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -11026,7 +10138,7 @@
         <v>22759822.08865569</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -11059,7 +10171,7 @@
         <v>22849825.93935569</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -12709,7 +11821,7 @@
         <v>24753374.27997477</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12742,7 +11854,7 @@
         <v>24768250.76347477</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12775,7 +11887,7 @@
         <v>24693911.85897477</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12808,7 +11920,7 @@
         <v>24563576.87057477</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12841,7 +11953,7 @@
         <v>24563576.87057477</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12874,7 +11986,7 @@
         <v>24458925.49897477</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12907,7 +12019,7 @@
         <v>24458925.49897477</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -12940,7 +12052,7 @@
         <v>24522569.18997477</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -12973,7 +12085,7 @@
         <v>24017108.18117477</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13006,7 +12118,7 @@
         <v>23801865.99177478</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13039,7 +12151,7 @@
         <v>24508747.42427478</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13072,7 +12184,7 @@
         <v>24508747.42427478</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -13105,7 +12217,7 @@
         <v>24534881.98017478</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -13600,7 +12712,7 @@
         <v>19558742.9708623</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13633,7 +12745,7 @@
         <v>21213050.2199623</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13666,7 +12778,7 @@
         <v>21194107.2290623</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13699,7 +12811,7 @@
         <v>21120204.5856623</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13732,7 +12844,7 @@
         <v>20820465.2758623</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13765,7 +12877,7 @@
         <v>20824168.7965623</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13798,7 +12910,7 @@
         <v>20831880.4183623</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13831,7 +12943,7 @@
         <v>20763383.0620623</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13864,7 +12976,7 @@
         <v>20863841.39539563</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13897,7 +13009,7 @@
         <v>20752109.55189563</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13930,7 +13042,7 @@
         <v>20910283.46379563</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13963,7 +13075,7 @@
         <v>20958007.46379563</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -13996,7 +13108,7 @@
         <v>20957897.46379563</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14029,7 +13141,7 @@
         <v>20692738.32499563</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14062,7 +13174,7 @@
         <v>20692683.32499563</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14095,7 +13207,7 @@
         <v>20675053.06690694</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14128,7 +13240,7 @@
         <v>20662783.31340694</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14194,7 +13306,7 @@
         <v>20387017.89745256</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14260,7 +13372,7 @@
         <v>19716320.62245256</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14491,7 +13603,7 @@
         <v>19141579.97535256</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14524,7 +13636,7 @@
         <v>19319268.91805256</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14590,7 +13702,7 @@
         <v>19548384.81765256</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14656,7 +13768,7 @@
         <v>19886753.77313154</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14689,7 +13801,7 @@
         <v>19886778.77313154</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14722,7 +13834,7 @@
         <v>19881111.95093154</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14755,7 +13867,7 @@
         <v>20264196.32113154</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14788,7 +13900,7 @@
         <v>20264176.37113154</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14799,6 +13911,6 @@
       <c r="M399" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-30 BackTest IOST.xlsx
+++ b/BackTest/2019-10-30 BackTest IOST.xlsx
@@ -1493,9 +1493,11 @@
         <v>-661063.8446000003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.9</v>
+      </c>
       <c r="J28" t="n">
         <v>6.49</v>
       </c>
@@ -1532,9 +1534,11 @@
         <v>-550305.1900000003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>6.89</v>
+      </c>
       <c r="J29" t="n">
         <v>6.49</v>
       </c>
@@ -1571,9 +1575,11 @@
         <v>-841193.2084000004</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>6.98</v>
+      </c>
       <c r="J30" t="n">
         <v>6.49</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>3812471.02930108</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
@@ -2515,15 +2521,13 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.263104776579353</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.01883830455259</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2548,11 +2552,17 @@
         <v>4481477.979701079</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2581,11 +2591,17 @@
         <v>4001479.265901079</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2614,11 +2630,17 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2647,11 +2669,17 @@
         <v>3473777.872001079</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2680,11 +2708,17 @@
         <v>3605103.629801079</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2713,11 +2747,17 @@
         <v>3888037.757201079</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2746,11 +2786,17 @@
         <v>6743520.138279704</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2779,11 +2825,17 @@
         <v>5669543.470479704</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2864,17 @@
         <v>6141273.172279704</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2845,11 +2903,17 @@
         <v>8617974.240461523</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2878,11 +2942,17 @@
         <v>7312966.117238534</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2911,11 +2981,17 @@
         <v>6417224.798138534</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2944,11 +3020,17 @@
         <v>6730806.021238534</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2977,11 +3059,17 @@
         <v>7848848.072956716</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3010,11 +3098,17 @@
         <v>9372565.272696579</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3043,11 +3137,17 @@
         <v>9965479.489348495</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3076,11 +3176,17 @@
         <v>9046831.960188005</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3112,8 +3218,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3145,8 +3257,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3178,8 +3296,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3208,11 +3332,17 @@
         <v>7908824.434188005</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3241,11 +3371,17 @@
         <v>8056732.904788004</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3274,11 +3410,17 @@
         <v>7757067.985688005</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3307,11 +3449,17 @@
         <v>8003971.056788005</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3343,8 +3491,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3373,11 +3527,17 @@
         <v>8003886.680688005</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3406,11 +3566,17 @@
         <v>8106774.861688005</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3439,11 +3605,17 @@
         <v>8447948.194357414</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3475,8 +3647,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3508,8 +3686,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3538,11 +3722,17 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3571,11 +3761,17 @@
         <v>8199520.959157414</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3604,11 +3800,17 @@
         <v>8054113.143057413</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3637,11 +3839,17 @@
         <v>8211612.692457413</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3670,11 +3878,17 @@
         <v>7591952.717157413</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3703,11 +3917,17 @@
         <v>8266035.230857413</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3736,11 +3956,17 @@
         <v>8827876.83791855</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3769,11 +3995,17 @@
         <v>8322067.312318549</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3802,11 +4034,17 @@
         <v>9392092.67231855</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3835,11 +4073,17 @@
         <v>10360713.65301855</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3868,11 +4112,17 @@
         <v>10796903.43751855</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3901,11 +4151,17 @@
         <v>10875461.19911855</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3937,8 +4193,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3970,8 +4232,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4003,8 +4271,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4036,8 +4310,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4069,8 +4349,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4102,8 +4388,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4135,8 +4427,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4168,8 +4466,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4201,8 +4505,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4234,8 +4544,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4267,8 +4583,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4300,8 +4622,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4333,8 +4661,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4366,8 +4700,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4399,8 +4739,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4432,8 +4778,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4465,8 +4817,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4498,8 +4856,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4531,8 +4895,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4564,8 +4934,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4597,8 +4973,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4630,8 +5012,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4663,8 +5051,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4696,8 +5090,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4729,8 +5129,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4762,8 +5168,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4795,8 +5207,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4828,8 +5246,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4861,8 +5285,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4894,8 +5324,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4927,8 +5363,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4960,8 +5402,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4993,8 +5441,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5026,8 +5480,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5059,8 +5519,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5092,8 +5558,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5125,8 +5597,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5158,8 +5636,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5191,8 +5675,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5224,8 +5714,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5257,8 +5753,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5290,8 +5792,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5323,8 +5831,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5356,8 +5870,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5389,8 +5909,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5422,8 +5948,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5455,8 +5987,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5488,8 +6026,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5521,8 +6065,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5554,8 +6104,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5587,8 +6143,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5620,8 +6182,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5653,8 +6221,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5686,8 +6260,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5719,8 +6299,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5752,8 +6338,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5785,8 +6377,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5818,8 +6416,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5851,8 +6455,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5884,8 +6494,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +6533,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5950,8 +6572,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5983,8 +6611,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6016,8 +6650,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6049,8 +6689,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6082,8 +6728,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6115,8 +6767,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6148,8 +6806,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6181,8 +6845,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6214,8 +6884,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6247,8 +6923,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6280,8 +6962,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6313,8 +7001,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6346,8 +7040,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6379,8 +7079,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6412,8 +7118,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6445,8 +7157,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6478,8 +7196,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6511,8 +7235,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6544,8 +7274,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6577,8 +7313,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6610,8 +7352,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6643,8 +7391,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6676,8 +7430,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6709,8 +7469,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6742,8 +7508,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6775,8 +7547,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6808,8 +7586,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6841,8 +7625,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6874,8 +7664,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6907,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6940,8 +7742,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6973,8 +7781,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7006,8 +7820,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7039,8 +7859,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7072,8 +7898,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7105,8 +7937,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7138,8 +7976,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7171,8 +8015,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7204,8 +8054,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7237,8 +8093,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7267,15 +8129,23 @@
         <v>21103682.26244609</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>1.498852080123267</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.01883830455259</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7333,7 +8203,7 @@
         <v>23792497.2263121</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7366,7 +8236,7 @@
         <v>23541334.9169121</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7399,7 +8269,7 @@
         <v>23741121.5919121</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7432,7 +8302,7 @@
         <v>23295809.6612121</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7465,7 +8335,7 @@
         <v>23459865.6444121</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7498,7 +8368,7 @@
         <v>23555872.7428121</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7531,7 +8401,7 @@
         <v>23555773.7329121</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7564,7 +8434,7 @@
         <v>23444194.6645121</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7597,7 +8467,7 @@
         <v>23316778.7318121</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7630,7 +8500,7 @@
         <v>23638587.1086121</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7663,7 +8533,7 @@
         <v>23481399.0040121</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7696,7 +8566,7 @@
         <v>23299537.0866121</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7729,7 +8599,7 @@
         <v>23855280.7148121</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7762,7 +8632,7 @@
         <v>24924805.14323468</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7795,7 +8665,7 @@
         <v>24704964.83823468</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7828,7 +8698,7 @@
         <v>24717088.59453468</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7861,7 +8731,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7894,7 +8764,7 @@
         <v>24176541.25283468</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7927,7 +8797,7 @@
         <v>23429562.62803468</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7960,7 +8830,7 @@
         <v>23705115.94533468</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7993,7 +8863,7 @@
         <v>23722095.75433468</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8026,7 +8896,7 @@
         <v>23402475.02513468</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8059,7 +8929,7 @@
         <v>23142033.40623467</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8092,7 +8962,7 @@
         <v>22715643.52703467</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8191,7 +9061,7 @@
         <v>23280609.45703467</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8224,7 +9094,7 @@
         <v>23301772.78963467</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8257,7 +9127,7 @@
         <v>23257667.96133468</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
